--- a/20201124.xlsx
+++ b/20201124.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
   <si>
     <t>날짜</t>
   </si>
@@ -34,10 +34,139 @@
     <t>항목</t>
   </si>
   <si>
+    <t>만찐두빵</t>
+  </si>
+  <si>
+    <t>감성골</t>
+  </si>
+  <si>
+    <t>상수리</t>
+  </si>
+  <si>
+    <t>이마트</t>
+  </si>
+  <si>
+    <t>종이밥</t>
+  </si>
+  <si>
+    <t>다이소</t>
+  </si>
+  <si>
+    <t>삼구포차</t>
+  </si>
+  <si>
+    <t>엑스칼리버</t>
+  </si>
+  <si>
+    <t>노래방</t>
+  </si>
+  <si>
+    <t>달빛포차</t>
+  </si>
+  <si>
+    <t>PC방</t>
+  </si>
+  <si>
+    <t>올리브영</t>
+  </si>
+  <si>
+    <t>베스킨라빈스</t>
+  </si>
+  <si>
+    <t>원피스</t>
+  </si>
+  <si>
+    <t>신발</t>
+  </si>
+  <si>
+    <t>바지</t>
+  </si>
+  <si>
+    <t>블라우스</t>
+  </si>
+  <si>
+    <t>휴대폰요금</t>
+  </si>
+  <si>
+    <t>치약</t>
+  </si>
+  <si>
+    <t>세제</t>
+  </si>
+  <si>
+    <t>샴푸</t>
+  </si>
+  <si>
+    <t>때밀이</t>
+  </si>
+  <si>
+    <t>티슈</t>
+  </si>
+  <si>
+    <t>버스비</t>
+  </si>
+  <si>
+    <t>치즈라면</t>
+  </si>
+  <si>
+    <t>애호박</t>
+  </si>
+  <si>
+    <t>양파</t>
+  </si>
+  <si>
+    <t>부대찌개</t>
+  </si>
+  <si>
+    <t>콩나물</t>
+  </si>
+  <si>
+    <t>시금치</t>
+  </si>
+  <si>
+    <t>라면</t>
+  </si>
+  <si>
+    <t>빼빼로</t>
+  </si>
+  <si>
+    <t>간장불고기</t>
+  </si>
+  <si>
+    <t>빵</t>
+  </si>
+  <si>
+    <t>커피</t>
+  </si>
+  <si>
     <t>뼈해장국</t>
   </si>
   <si>
+    <t>콩나물국밥</t>
+  </si>
+  <si>
     <t>용돈</t>
+  </si>
+  <si>
+    <t>엄마가용돈</t>
+  </si>
+  <si>
+    <t>만화책</t>
+  </si>
+  <si>
+    <t>물티슈</t>
+  </si>
+  <si>
+    <t>각티슈</t>
+  </si>
+  <si>
+    <t>후드티</t>
+  </si>
+  <si>
+    <t>월급</t>
+  </si>
+  <si>
+    <t>짜장면</t>
   </si>
 </sst>
 </file>
@@ -399,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -427,36 +556,810 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2">
-        <v>44160</v>
+        <v>44133</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D2">
-        <v>6000</v>
+        <v>24000</v>
       </c>
       <c r="E2">
         <v>-1</v>
       </c>
       <c r="F2">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2">
+        <v>44154</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>69000</v>
+      </c>
+      <c r="E3">
+        <v>-1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2">
+        <v>44156</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4">
+        <v>26000</v>
+      </c>
+      <c r="E4">
+        <v>-1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2">
+        <v>44159</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5">
+        <v>31000</v>
+      </c>
+      <c r="E5">
+        <v>-1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2">
+        <v>44161</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>49000</v>
+      </c>
+      <c r="E6">
+        <v>-1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2">
+        <v>44136</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7">
+        <v>86000</v>
+      </c>
+      <c r="E7">
+        <v>-1</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2">
+        <v>44156</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8">
+        <v>2700</v>
+      </c>
+      <c r="E8">
+        <v>-1</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2">
+        <v>44156</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9">
+        <v>4000</v>
+      </c>
+      <c r="E9">
+        <v>-1</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2">
+        <v>44156</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10">
+        <v>5000</v>
+      </c>
+      <c r="E10">
+        <v>-1</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2">
+        <v>44156</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11">
+        <v>1500</v>
+      </c>
+      <c r="E11">
+        <v>-1</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2">
+        <v>44161</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12">
+        <v>1500</v>
+      </c>
+      <c r="E12">
+        <v>-1</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2">
+        <v>44161</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13">
+        <v>1300</v>
+      </c>
+      <c r="E13">
+        <v>-1</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2">
+        <v>44130</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14">
+        <v>3500</v>
+      </c>
+      <c r="E14">
+        <v>-1</v>
+      </c>
+      <c r="F14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2">
+        <v>44131</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15">
+        <v>2300</v>
+      </c>
+      <c r="E15">
+        <v>-1</v>
+      </c>
+      <c r="F15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2">
+        <v>44131</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16">
+        <v>970</v>
+      </c>
+      <c r="E16">
+        <v>-1</v>
+      </c>
+      <c r="F16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2">
+        <v>44139</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17">
+        <v>6000</v>
+      </c>
+      <c r="E17">
+        <v>-1</v>
+      </c>
+      <c r="F17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2">
+        <v>44139</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18">
+        <v>2000</v>
+      </c>
+      <c r="E18">
+        <v>-1</v>
+      </c>
+      <c r="F18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2">
+        <v>44140</v>
+      </c>
+      <c r="C19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19">
+        <v>2000</v>
+      </c>
+      <c r="E19">
+        <v>-1</v>
+      </c>
+      <c r="F19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2">
+        <v>44141</v>
+      </c>
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20">
+        <v>850</v>
+      </c>
+      <c r="E20">
+        <v>-1</v>
+      </c>
+      <c r="F20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2">
+        <v>44145</v>
+      </c>
+      <c r="C21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21">
+        <v>6000</v>
+      </c>
+      <c r="E21">
+        <v>-1</v>
+      </c>
+      <c r="F21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2">
+        <v>44146</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22">
+        <v>5500</v>
+      </c>
+      <c r="E22">
+        <v>-1</v>
+      </c>
+      <c r="F22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2">
+        <v>44149</v>
+      </c>
+      <c r="C23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23">
+        <v>1300</v>
+      </c>
+      <c r="E23">
+        <v>-1</v>
+      </c>
+      <c r="F23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="2">
+        <v>44151</v>
+      </c>
+      <c r="C24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24">
+        <v>2800</v>
+      </c>
+      <c r="E24">
+        <v>-1</v>
+      </c>
+      <c r="F24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="2">
+        <v>44153</v>
+      </c>
+      <c r="C25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25">
+        <v>6000</v>
+      </c>
+      <c r="E25">
+        <v>-1</v>
+      </c>
+      <c r="F25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="2">
+        <v>44153</v>
+      </c>
+      <c r="C26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26">
+        <v>6000</v>
+      </c>
+      <c r="E26">
+        <v>-1</v>
+      </c>
+      <c r="F26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="2">
+        <v>44154</v>
+      </c>
+      <c r="C27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27">
+        <v>4500</v>
+      </c>
+      <c r="E27">
+        <v>-1</v>
+      </c>
+      <c r="F27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2">
+        <v>44136</v>
+      </c>
+      <c r="C28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28">
+        <v>300000</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="2">
         <v>44147</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>400000</v>
-      </c>
-      <c r="E3">
+      <c r="C29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29">
+        <v>30000</v>
+      </c>
+      <c r="E29">
         <v>1</v>
       </c>
-      <c r="F3">
+      <c r="F29">
         <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="2">
+        <v>44123</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30">
+        <v>32800</v>
+      </c>
+      <c r="E30">
+        <v>-1</v>
+      </c>
+      <c r="F30">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="2">
+        <v>44125</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31">
+        <v>3800</v>
+      </c>
+      <c r="E31">
+        <v>-1</v>
+      </c>
+      <c r="F31">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="2">
+        <v>44134</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32">
+        <v>44000</v>
+      </c>
+      <c r="E32">
+        <v>-1</v>
+      </c>
+      <c r="F32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="2">
+        <v>44135</v>
+      </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33">
+        <v>17000</v>
+      </c>
+      <c r="E33">
+        <v>-1</v>
+      </c>
+      <c r="F33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="2">
+        <v>44135</v>
+      </c>
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34">
+        <v>37000</v>
+      </c>
+      <c r="E34">
+        <v>-1</v>
+      </c>
+      <c r="F34">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="2">
+        <v>44135</v>
+      </c>
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35">
+        <v>6000</v>
+      </c>
+      <c r="E35">
+        <v>-1</v>
+      </c>
+      <c r="F35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="2">
+        <v>44151</v>
+      </c>
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36">
+        <v>28000</v>
+      </c>
+      <c r="E36">
+        <v>-1</v>
+      </c>
+      <c r="F36">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="2">
+        <v>44151</v>
+      </c>
+      <c r="B37" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37">
+        <v>1500</v>
+      </c>
+      <c r="E37">
+        <v>-1</v>
+      </c>
+      <c r="F37">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="2">
+        <v>44152</v>
+      </c>
+      <c r="C38" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38">
+        <v>5900</v>
+      </c>
+      <c r="E38">
+        <v>-1</v>
+      </c>
+      <c r="F38">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="2">
+        <v>44153</v>
+      </c>
+      <c r="B39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39">
+        <v>14900</v>
+      </c>
+      <c r="E39">
+        <v>-1</v>
+      </c>
+      <c r="F39">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="2">
+        <v>44153</v>
+      </c>
+      <c r="B40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40">
+        <v>7200</v>
+      </c>
+      <c r="E40">
+        <v>-1</v>
+      </c>
+      <c r="F40">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="2">
+        <v>44156</v>
+      </c>
+      <c r="C41" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41">
+        <v>2300</v>
+      </c>
+      <c r="E41">
+        <v>-1</v>
+      </c>
+      <c r="F41">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="2">
+        <v>44156</v>
+      </c>
+      <c r="C42" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42">
+        <v>1800</v>
+      </c>
+      <c r="E42">
+        <v>-1</v>
+      </c>
+      <c r="F42">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="2">
+        <v>44156</v>
+      </c>
+      <c r="C43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43">
+        <v>38000</v>
+      </c>
+      <c r="E43">
+        <v>-1</v>
+      </c>
+      <c r="F43">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="2">
+        <v>44160</v>
+      </c>
+      <c r="C44" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44">
+        <v>300000</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="2">
+        <v>44160</v>
+      </c>
+      <c r="C45" t="s">
+        <v>43</v>
+      </c>
+      <c r="D45">
+        <v>30000</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="2">
+        <v>44160</v>
+      </c>
+      <c r="C46" t="s">
+        <v>49</v>
+      </c>
+      <c r="D46">
+        <v>430000</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="2">
+        <v>44160</v>
+      </c>
+      <c r="C47" t="s">
+        <v>43</v>
+      </c>
+      <c r="D47">
+        <v>20000</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="2">
+        <v>44161</v>
+      </c>
+      <c r="C48" t="s">
+        <v>50</v>
+      </c>
+      <c r="D48">
+        <v>6000</v>
+      </c>
+      <c r="E48">
+        <v>-1</v>
+      </c>
+      <c r="F48">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
